--- a/Financials/Quarterly/CZZ_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CZZ_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AEFB5-1FBD-4821-96CF-D6F2C2845BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CZZ" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,37 +689,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,94 +748,94 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1010800</v>
+        <v>1044600</v>
       </c>
       <c r="E8" s="3">
-        <v>879000</v>
+        <v>908500</v>
       </c>
       <c r="F8" s="3">
-        <v>922200</v>
+        <v>953000</v>
       </c>
       <c r="G8" s="3">
-        <v>920600</v>
+        <v>951400</v>
       </c>
       <c r="H8" s="3">
-        <v>835700</v>
+        <v>863600</v>
       </c>
       <c r="I8" s="3">
-        <v>691100</v>
+        <v>714200</v>
       </c>
       <c r="J8" s="3">
-        <v>691100</v>
+        <v>714200</v>
       </c>
       <c r="K8" s="3">
         <v>811900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>722700</v>
+        <v>746900</v>
       </c>
       <c r="E9" s="3">
-        <v>623300</v>
+        <v>644200</v>
       </c>
       <c r="F9" s="3">
-        <v>661100</v>
+        <v>683200</v>
       </c>
       <c r="G9" s="3">
-        <v>596800</v>
+        <v>616800</v>
       </c>
       <c r="H9" s="3">
-        <v>546300</v>
+        <v>564600</v>
       </c>
       <c r="I9" s="3">
-        <v>486100</v>
+        <v>502400</v>
       </c>
       <c r="J9" s="3">
-        <v>550700</v>
+        <v>569100</v>
       </c>
       <c r="K9" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>288100</v>
+        <v>297700</v>
       </c>
       <c r="E10" s="3">
-        <v>255700</v>
+        <v>264300</v>
       </c>
       <c r="F10" s="3">
-        <v>261000</v>
+        <v>269800</v>
       </c>
       <c r="G10" s="3">
-        <v>323800</v>
+        <v>334700</v>
       </c>
       <c r="H10" s="3">
-        <v>289300</v>
+        <v>299000</v>
       </c>
       <c r="I10" s="3">
-        <v>205000</v>
+        <v>211800</v>
       </c>
       <c r="J10" s="3">
-        <v>140500</v>
+        <v>145200</v>
       </c>
       <c r="K10" s="3">
         <v>306800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,7 +848,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,36 +906,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="F14" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="G14" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H14" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="I14" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J14" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,65 +974,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>830900</v>
+        <v>858700</v>
       </c>
       <c r="E17" s="3">
-        <v>669500</v>
+        <v>691900</v>
       </c>
       <c r="F17" s="3">
-        <v>493100</v>
+        <v>509600</v>
       </c>
       <c r="G17" s="3">
-        <v>618100</v>
+        <v>638800</v>
       </c>
       <c r="H17" s="3">
-        <v>668700</v>
+        <v>691100</v>
       </c>
       <c r="I17" s="3">
-        <v>541300</v>
+        <v>559400</v>
       </c>
       <c r="J17" s="3">
-        <v>579800</v>
+        <v>599200</v>
       </c>
       <c r="K17" s="3">
         <v>530200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>179900</v>
+        <v>186000</v>
       </c>
       <c r="E18" s="3">
-        <v>209500</v>
+        <v>216500</v>
       </c>
       <c r="F18" s="3">
-        <v>429100</v>
+        <v>443500</v>
       </c>
       <c r="G18" s="3">
-        <v>302500</v>
+        <v>312600</v>
       </c>
       <c r="H18" s="3">
-        <v>167000</v>
+        <v>172600</v>
       </c>
       <c r="I18" s="3">
-        <v>149800</v>
+        <v>154800</v>
       </c>
       <c r="J18" s="3">
-        <v>111300</v>
+        <v>115000</v>
       </c>
       <c r="K18" s="3">
         <v>281800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,123 +1045,123 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-82000</v>
+        <v>-84700</v>
       </c>
       <c r="E20" s="3">
-        <v>-21600</v>
+        <v>-22300</v>
       </c>
       <c r="F20" s="3">
-        <v>-134100</v>
+        <v>-138600</v>
       </c>
       <c r="G20" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="H20" s="3">
-        <v>-57900</v>
+        <v>-59900</v>
       </c>
       <c r="I20" s="3">
-        <v>-32800</v>
+        <v>-33900</v>
       </c>
       <c r="J20" s="3">
-        <v>-68000</v>
+        <v>-70300</v>
       </c>
       <c r="K20" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>225600</v>
+        <v>233200</v>
       </c>
       <c r="E21" s="3">
-        <v>305300</v>
+        <v>315500</v>
       </c>
       <c r="F21" s="3">
-        <v>442600</v>
+        <v>457400</v>
       </c>
       <c r="G21" s="3">
-        <v>400800</v>
+        <v>414200</v>
       </c>
       <c r="H21" s="3">
-        <v>220900</v>
+        <v>228300</v>
       </c>
       <c r="I21" s="3">
-        <v>227800</v>
+        <v>235400</v>
       </c>
       <c r="J21" s="3">
-        <v>199900</v>
+        <v>206600</v>
       </c>
       <c r="K21" s="3">
         <v>424900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102500</v>
+        <v>106000</v>
       </c>
       <c r="E22" s="3">
-        <v>107500</v>
+        <v>111100</v>
       </c>
       <c r="F22" s="3">
-        <v>95600</v>
+        <v>98800</v>
       </c>
       <c r="G22" s="3">
-        <v>117200</v>
+        <v>121100</v>
       </c>
       <c r="H22" s="3">
-        <v>111900</v>
+        <v>115600</v>
       </c>
       <c r="I22" s="3">
-        <v>120600</v>
+        <v>124600</v>
       </c>
       <c r="J22" s="3">
-        <v>112100</v>
+        <v>115800</v>
       </c>
       <c r="K22" s="3">
         <v>238200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E23" s="3">
-        <v>80300</v>
+        <v>83000</v>
       </c>
       <c r="F23" s="3">
-        <v>199400</v>
+        <v>206100</v>
       </c>
       <c r="G23" s="3">
-        <v>172800</v>
+        <v>178600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J23" s="3">
-        <v>-68800</v>
+        <v>-71100</v>
       </c>
       <c r="K23" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,28 +1169,28 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="F24" s="3">
-        <v>49500</v>
+        <v>51200</v>
       </c>
       <c r="G24" s="3">
-        <v>36900</v>
+        <v>38200</v>
       </c>
       <c r="H24" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I24" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J24" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,65 +1219,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="E26" s="3">
-        <v>59700</v>
+        <v>61700</v>
       </c>
       <c r="F26" s="3">
-        <v>149900</v>
+        <v>154900</v>
       </c>
       <c r="G26" s="3">
-        <v>135900</v>
+        <v>140500</v>
       </c>
       <c r="H26" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
-        <v>-14500</v>
+        <v>-14900</v>
       </c>
       <c r="J26" s="3">
-        <v>-46400</v>
+        <v>-47900</v>
       </c>
       <c r="K26" s="3">
         <v>73400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E27" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F27" s="3">
-        <v>81000</v>
+        <v>83700</v>
       </c>
       <c r="G27" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="H27" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="I27" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J27" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="K27" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K29" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,65 +1393,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>82000</v>
+        <v>84700</v>
       </c>
       <c r="E32" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="F32" s="3">
-        <v>134100</v>
+        <v>138600</v>
       </c>
       <c r="G32" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="H32" s="3">
-        <v>57900</v>
+        <v>59900</v>
       </c>
       <c r="I32" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="J32" s="3">
-        <v>68000</v>
+        <v>70300</v>
       </c>
       <c r="K32" s="3">
         <v>-47000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E33" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F33" s="3">
-        <v>81000</v>
+        <v>83700</v>
       </c>
       <c r="G33" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="H33" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="I33" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J33" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,41 +1480,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E35" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F35" s="3">
-        <v>81000</v>
+        <v>83700</v>
       </c>
       <c r="G35" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="H35" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="I35" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J35" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1556,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,268 +1569,268 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="E41" s="3">
-        <v>65100</v>
+        <v>67300</v>
       </c>
       <c r="F41" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="G41" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="H41" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="I41" s="3">
-        <v>605200</v>
+        <v>625500</v>
       </c>
       <c r="J41" s="3">
-        <v>93300</v>
+        <v>96400</v>
       </c>
       <c r="K41" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1925200</v>
+        <v>1989600</v>
       </c>
       <c r="E42" s="3">
-        <v>2329300</v>
+        <v>2407200</v>
       </c>
       <c r="F42" s="3">
-        <v>2405100</v>
+        <v>2485600</v>
       </c>
       <c r="G42" s="3">
-        <v>1932700</v>
+        <v>1997400</v>
       </c>
       <c r="H42" s="3">
-        <v>1626700</v>
+        <v>1681200</v>
       </c>
       <c r="I42" s="3">
-        <v>1247200</v>
+        <v>1288900</v>
       </c>
       <c r="J42" s="3">
-        <v>1343400</v>
+        <v>1388300</v>
       </c>
       <c r="K42" s="3">
         <v>969600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>585300</v>
+        <v>604900</v>
       </c>
       <c r="E43" s="3">
-        <v>529700</v>
+        <v>547500</v>
       </c>
       <c r="F43" s="3">
-        <v>486500</v>
+        <v>502800</v>
       </c>
       <c r="G43" s="3">
-        <v>433500</v>
+        <v>448000</v>
       </c>
       <c r="H43" s="3">
-        <v>430700</v>
+        <v>445100</v>
       </c>
       <c r="I43" s="3">
-        <v>392900</v>
+        <v>406000</v>
       </c>
       <c r="J43" s="3">
-        <v>465700</v>
+        <v>481300</v>
       </c>
       <c r="K43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>189000</v>
+        <v>195300</v>
       </c>
       <c r="E44" s="3">
-        <v>160100</v>
+        <v>165500</v>
       </c>
       <c r="F44" s="3">
-        <v>164500</v>
+        <v>170000</v>
       </c>
       <c r="G44" s="3">
-        <v>152300</v>
+        <v>157400</v>
       </c>
       <c r="H44" s="3">
-        <v>144100</v>
+        <v>148900</v>
       </c>
       <c r="I44" s="3">
-        <v>148800</v>
+        <v>153800</v>
       </c>
       <c r="J44" s="3">
-        <v>156500</v>
+        <v>161700</v>
       </c>
       <c r="K44" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>126200</v>
+        <v>130400</v>
       </c>
       <c r="E45" s="3">
-        <v>123100</v>
+        <v>127300</v>
       </c>
       <c r="F45" s="3">
-        <v>164100</v>
+        <v>169600</v>
       </c>
       <c r="G45" s="3">
-        <v>128400</v>
+        <v>132700</v>
       </c>
       <c r="H45" s="3">
-        <v>113800</v>
+        <v>117700</v>
       </c>
       <c r="I45" s="3">
-        <v>104900</v>
+        <v>108400</v>
       </c>
       <c r="J45" s="3">
-        <v>116600</v>
+        <v>120500</v>
       </c>
       <c r="K45" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2854800</v>
+        <v>2950300</v>
       </c>
       <c r="E46" s="3">
-        <v>3207400</v>
+        <v>3314700</v>
       </c>
       <c r="F46" s="3">
-        <v>3233500</v>
+        <v>3341600</v>
       </c>
       <c r="G46" s="3">
-        <v>2660600</v>
+        <v>2749600</v>
       </c>
       <c r="H46" s="3">
-        <v>2330100</v>
+        <v>2408100</v>
       </c>
       <c r="I46" s="3">
-        <v>2499000</v>
+        <v>2582600</v>
       </c>
       <c r="J46" s="3">
-        <v>2175400</v>
+        <v>2248200</v>
       </c>
       <c r="K46" s="3">
         <v>2515800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2374200</v>
+        <v>2453700</v>
       </c>
       <c r="E47" s="3">
-        <v>2446600</v>
+        <v>2528500</v>
       </c>
       <c r="F47" s="3">
-        <v>2478400</v>
+        <v>2561300</v>
       </c>
       <c r="G47" s="3">
-        <v>2537500</v>
+        <v>2622400</v>
       </c>
       <c r="H47" s="3">
-        <v>2510200</v>
+        <v>2594200</v>
       </c>
       <c r="I47" s="3">
-        <v>2522100</v>
+        <v>2606500</v>
       </c>
       <c r="J47" s="3">
-        <v>2454300</v>
+        <v>2536400</v>
       </c>
       <c r="K47" s="3">
         <v>2421600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2997700</v>
+        <v>3098000</v>
       </c>
       <c r="E48" s="3">
-        <v>2942400</v>
+        <v>3040900</v>
       </c>
       <c r="F48" s="3">
-        <v>2898000</v>
+        <v>2994900</v>
       </c>
       <c r="G48" s="3">
-        <v>2810700</v>
+        <v>2904800</v>
       </c>
       <c r="H48" s="3">
-        <v>2759800</v>
+        <v>2852200</v>
       </c>
       <c r="I48" s="3">
-        <v>2710700</v>
+        <v>2801400</v>
       </c>
       <c r="J48" s="3">
-        <v>2661000</v>
+        <v>2750000</v>
       </c>
       <c r="K48" s="3">
         <v>2653300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4199100</v>
+        <v>4339600</v>
       </c>
       <c r="E49" s="3">
-        <v>4199800</v>
+        <v>4340300</v>
       </c>
       <c r="F49" s="3">
-        <v>4210800</v>
+        <v>4351700</v>
       </c>
       <c r="G49" s="3">
-        <v>4179800</v>
+        <v>4319600</v>
       </c>
       <c r="H49" s="3">
-        <v>4198300</v>
+        <v>4338700</v>
       </c>
       <c r="I49" s="3">
-        <v>4216500</v>
+        <v>4357600</v>
       </c>
       <c r="J49" s="3">
-        <v>4244500</v>
+        <v>4386500</v>
       </c>
       <c r="K49" s="3">
         <v>4252100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,36 +1888,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1142100</v>
+        <v>1180300</v>
       </c>
       <c r="E52" s="3">
-        <v>975900</v>
+        <v>1008600</v>
       </c>
       <c r="F52" s="3">
-        <v>978700</v>
+        <v>1011400</v>
       </c>
       <c r="G52" s="3">
-        <v>1055300</v>
+        <v>1090600</v>
       </c>
       <c r="H52" s="3">
-        <v>1038800</v>
+        <v>1073600</v>
       </c>
       <c r="I52" s="3">
-        <v>976500</v>
+        <v>1009200</v>
       </c>
       <c r="J52" s="3">
-        <v>985300</v>
+        <v>1018300</v>
       </c>
       <c r="K52" s="3">
         <v>1163300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,36 +1946,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13567900</v>
+        <v>14021800</v>
       </c>
       <c r="E54" s="3">
-        <v>13772100</v>
+        <v>14232900</v>
       </c>
       <c r="F54" s="3">
-        <v>13799300</v>
+        <v>14261000</v>
       </c>
       <c r="G54" s="3">
-        <v>13243900</v>
+        <v>13687000</v>
       </c>
       <c r="H54" s="3">
-        <v>12837300</v>
+        <v>13266800</v>
       </c>
       <c r="I54" s="3">
-        <v>12924800</v>
+        <v>13357300</v>
       </c>
       <c r="J54" s="3">
-        <v>12520600</v>
+        <v>12939500</v>
       </c>
       <c r="K54" s="3">
         <v>13006000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1988,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,181 +2001,181 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>628900</v>
+        <v>649900</v>
       </c>
       <c r="E57" s="3">
-        <v>584500</v>
+        <v>604000</v>
       </c>
       <c r="F57" s="3">
-        <v>603800</v>
+        <v>624000</v>
       </c>
       <c r="G57" s="3">
-        <v>543100</v>
+        <v>561300</v>
       </c>
       <c r="H57" s="3">
-        <v>498100</v>
+        <v>514700</v>
       </c>
       <c r="I57" s="3">
-        <v>478000</v>
+        <v>494000</v>
       </c>
       <c r="J57" s="3">
-        <v>504200</v>
+        <v>521100</v>
       </c>
       <c r="K57" s="3">
         <v>475000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>691900</v>
+        <v>715000</v>
       </c>
       <c r="E58" s="3">
-        <v>700700</v>
+        <v>724100</v>
       </c>
       <c r="F58" s="3">
-        <v>1040000</v>
+        <v>1074800</v>
       </c>
       <c r="G58" s="3">
-        <v>867400</v>
+        <v>896400</v>
       </c>
       <c r="H58" s="3">
-        <v>870400</v>
+        <v>899500</v>
       </c>
       <c r="I58" s="3">
-        <v>866400</v>
+        <v>895400</v>
       </c>
       <c r="J58" s="3">
-        <v>720500</v>
+        <v>744600</v>
       </c>
       <c r="K58" s="3">
         <v>743100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>485800</v>
+        <v>502100</v>
       </c>
       <c r="E59" s="3">
-        <v>491500</v>
+        <v>508000</v>
       </c>
       <c r="F59" s="3">
-        <v>594400</v>
+        <v>614300</v>
       </c>
       <c r="G59" s="3">
-        <v>441800</v>
+        <v>456500</v>
       </c>
       <c r="H59" s="3">
-        <v>403200</v>
+        <v>416700</v>
       </c>
       <c r="I59" s="3">
-        <v>361700</v>
+        <v>373800</v>
       </c>
       <c r="J59" s="3">
-        <v>419800</v>
+        <v>433900</v>
       </c>
       <c r="K59" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1806600</v>
+        <v>1867000</v>
       </c>
       <c r="E60" s="3">
-        <v>1776700</v>
+        <v>1836100</v>
       </c>
       <c r="F60" s="3">
-        <v>2238300</v>
+        <v>2313100</v>
       </c>
       <c r="G60" s="3">
-        <v>1852300</v>
+        <v>1914200</v>
       </c>
       <c r="H60" s="3">
-        <v>1771600</v>
+        <v>1830900</v>
       </c>
       <c r="I60" s="3">
-        <v>1706200</v>
+        <v>1763300</v>
       </c>
       <c r="J60" s="3">
-        <v>1644500</v>
+        <v>1699600</v>
       </c>
       <c r="K60" s="3">
         <v>1673100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6079900</v>
+        <v>6283300</v>
       </c>
       <c r="E61" s="3">
-        <v>6036500</v>
+        <v>6238500</v>
       </c>
       <c r="F61" s="3">
-        <v>5660400</v>
+        <v>5849800</v>
       </c>
       <c r="G61" s="3">
-        <v>5768400</v>
+        <v>5961400</v>
       </c>
       <c r="H61" s="3">
-        <v>5564100</v>
+        <v>5750200</v>
       </c>
       <c r="I61" s="3">
-        <v>5635200</v>
+        <v>5823700</v>
       </c>
       <c r="J61" s="3">
-        <v>5261500</v>
+        <v>5437600</v>
       </c>
       <c r="K61" s="3">
         <v>5171800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1645000</v>
+        <v>1700000</v>
       </c>
       <c r="E62" s="3">
-        <v>1670000</v>
+        <v>1725900</v>
       </c>
       <c r="F62" s="3">
-        <v>1668500</v>
+        <v>1724400</v>
       </c>
       <c r="G62" s="3">
-        <v>1615000</v>
+        <v>1669000</v>
       </c>
       <c r="H62" s="3">
-        <v>1616600</v>
+        <v>1670700</v>
       </c>
       <c r="I62" s="3">
-        <v>1675700</v>
+        <v>1731800</v>
       </c>
       <c r="J62" s="3">
-        <v>1642800</v>
+        <v>1697800</v>
       </c>
       <c r="K62" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,36 +2262,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12155900</v>
+        <v>12562600</v>
       </c>
       <c r="E66" s="3">
-        <v>12250400</v>
+        <v>12660200</v>
       </c>
       <c r="F66" s="3">
-        <v>12301200</v>
+        <v>12712800</v>
       </c>
       <c r="G66" s="3">
-        <v>11634400</v>
+        <v>12023600</v>
       </c>
       <c r="H66" s="3">
-        <v>11285500</v>
+        <v>11663100</v>
       </c>
       <c r="I66" s="3">
-        <v>11369700</v>
+        <v>11750000</v>
       </c>
       <c r="J66" s="3">
-        <v>10964500</v>
+        <v>11331300</v>
       </c>
       <c r="K66" s="3">
         <v>11457400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,7 +2304,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,36 +2420,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>803200</v>
+        <v>830000</v>
       </c>
       <c r="E72" s="3">
-        <v>815000</v>
+        <v>842300</v>
       </c>
       <c r="F72" s="3">
-        <v>789400</v>
+        <v>815800</v>
       </c>
       <c r="G72" s="3">
-        <v>708400</v>
+        <v>732100</v>
       </c>
       <c r="H72" s="3">
-        <v>646800</v>
+        <v>668500</v>
       </c>
       <c r="I72" s="3">
-        <v>674100</v>
+        <v>696600</v>
       </c>
       <c r="J72" s="3">
-        <v>668800</v>
+        <v>691200</v>
       </c>
       <c r="K72" s="3">
         <v>658600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,36 +2536,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1412000</v>
+        <v>1459200</v>
       </c>
       <c r="E76" s="3">
-        <v>1521800</v>
+        <v>1572700</v>
       </c>
       <c r="F76" s="3">
-        <v>1498100</v>
+        <v>1548200</v>
       </c>
       <c r="G76" s="3">
-        <v>1609500</v>
+        <v>1663400</v>
       </c>
       <c r="H76" s="3">
-        <v>1551800</v>
+        <v>1603700</v>
       </c>
       <c r="I76" s="3">
-        <v>1555200</v>
+        <v>1607200</v>
       </c>
       <c r="J76" s="3">
-        <v>1556100</v>
+        <v>1608100</v>
       </c>
       <c r="K76" s="3">
         <v>1548600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,12 +2594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2593,36 +2628,36 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E81" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F81" s="3">
-        <v>81000</v>
+        <v>83700</v>
       </c>
       <c r="G81" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="H81" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="I81" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J81" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,36 +2670,36 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127700</v>
+        <v>131900</v>
       </c>
       <c r="E83" s="3">
-        <v>117400</v>
+        <v>121300</v>
       </c>
       <c r="F83" s="3">
-        <v>147600</v>
+        <v>152500</v>
       </c>
       <c r="G83" s="3">
-        <v>110700</v>
+        <v>114400</v>
       </c>
       <c r="H83" s="3">
-        <v>111800</v>
+        <v>115600</v>
       </c>
       <c r="I83" s="3">
-        <v>110800</v>
+        <v>114500</v>
       </c>
       <c r="J83" s="3">
-        <v>119700</v>
+        <v>123700</v>
       </c>
       <c r="K83" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,36 +2844,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>263900</v>
+        <v>272700</v>
       </c>
       <c r="E89" s="3">
-        <v>454100</v>
+        <v>469300</v>
       </c>
       <c r="F89" s="3">
-        <v>229100</v>
+        <v>236800</v>
       </c>
       <c r="G89" s="3">
-        <v>311000</v>
+        <v>321400</v>
       </c>
       <c r="H89" s="3">
-        <v>233400</v>
+        <v>241200</v>
       </c>
       <c r="I89" s="3">
-        <v>240600</v>
+        <v>248700</v>
       </c>
       <c r="J89" s="3">
-        <v>156000</v>
+        <v>161200</v>
       </c>
       <c r="K89" s="3">
         <v>342500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,36 +2886,36 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-178900</v>
+        <v>-184900</v>
       </c>
       <c r="E91" s="3">
-        <v>-147000</v>
+        <v>-151900</v>
       </c>
       <c r="F91" s="3">
-        <v>-188400</v>
+        <v>-194700</v>
       </c>
       <c r="G91" s="3">
-        <v>-140800</v>
+        <v>-145500</v>
       </c>
       <c r="H91" s="3">
-        <v>-145900</v>
+        <v>-150800</v>
       </c>
       <c r="I91" s="3">
-        <v>-134600</v>
+        <v>-139100</v>
       </c>
       <c r="J91" s="3">
-        <v>248700</v>
+        <v>-152400</v>
       </c>
       <c r="K91" s="3">
         <v>-271600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,36 +2973,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151600</v>
+        <v>-156700</v>
       </c>
       <c r="E94" s="3">
-        <v>36000</v>
+        <v>37200</v>
       </c>
       <c r="F94" s="3">
-        <v>-539300</v>
+        <v>-557300</v>
       </c>
       <c r="G94" s="3">
-        <v>178400</v>
+        <v>184400</v>
       </c>
       <c r="H94" s="3">
-        <v>-488500</v>
+        <v>-504900</v>
       </c>
       <c r="I94" s="3">
-        <v>-38000</v>
+        <v>-39300</v>
       </c>
       <c r="J94" s="3">
-        <v>312700</v>
+        <v>323200</v>
       </c>
       <c r="K94" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,36 +3015,36 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-134300</v>
+        <v>-138800</v>
       </c>
       <c r="E96" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F96" s="3">
-        <v>-99300</v>
+        <v>-102600</v>
       </c>
       <c r="G96" s="3">
         <v>-600</v>
       </c>
       <c r="H96" s="3">
-        <v>-130400</v>
+        <v>-134800</v>
       </c>
       <c r="I96" s="3">
-        <v>-40100</v>
+        <v>-41400</v>
       </c>
       <c r="J96" s="3">
-        <v>-117000</v>
+        <v>-121000</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,56 +3131,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-675900</v>
+        <v>-698500</v>
       </c>
       <c r="E100" s="3">
-        <v>-115800</v>
+        <v>-119700</v>
       </c>
       <c r="F100" s="3">
-        <v>-17800</v>
+        <v>-18400</v>
       </c>
       <c r="G100" s="3">
-        <v>-25300</v>
+        <v>-26100</v>
       </c>
       <c r="H100" s="3">
-        <v>-394300</v>
+        <v>-407500</v>
       </c>
       <c r="I100" s="3">
-        <v>297000</v>
+        <v>307000</v>
       </c>
       <c r="J100" s="3">
-        <v>-137400</v>
+        <v>-142000</v>
       </c>
       <c r="K100" s="3">
         <v>-169200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>60100</v>
+        <v>62100</v>
       </c>
       <c r="E101" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F101" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="G101" s="3">
         <v>-1500</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J101" s="3">
         <v>1600</v>
@@ -3154,30 +3189,30 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-503500</v>
+        <v>-520300</v>
       </c>
       <c r="E102" s="3">
-        <v>383900</v>
+        <v>396700</v>
       </c>
       <c r="F102" s="3">
-        <v>-309300</v>
+        <v>-319600</v>
       </c>
       <c r="G102" s="3">
-        <v>462600</v>
+        <v>478100</v>
       </c>
       <c r="H102" s="3">
-        <v>-646800</v>
+        <v>-668400</v>
       </c>
       <c r="I102" s="3">
-        <v>507200</v>
+        <v>524200</v>
       </c>
       <c r="J102" s="3">
-        <v>332800</v>
+        <v>344000</v>
       </c>
       <c r="K102" s="3">
         <v>152300</v>

--- a/Financials/Quarterly/CZZ_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CZZ_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AEFB5-1FBD-4821-96CF-D6F2C2845BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CZZ" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CZZ</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,153 +654,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1044600</v>
+        <v>1338300</v>
       </c>
       <c r="E8" s="3">
-        <v>908500</v>
+        <v>1184600</v>
       </c>
       <c r="F8" s="3">
+        <v>1102300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>951500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>827500</v>
+      </c>
+      <c r="K8" s="3">
         <v>953000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>951400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>863600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>714200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>714200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>811900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>746900</v>
+        <v>879200</v>
       </c>
       <c r="E9" s="3">
-        <v>644200</v>
+        <v>812000</v>
       </c>
       <c r="F9" s="3">
+        <v>810200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>767800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>795400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>680300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>586800</v>
+      </c>
+      <c r="K9" s="3">
         <v>683200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>616800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>564600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>502400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>569100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>297700</v>
+        <v>459200</v>
       </c>
       <c r="E10" s="3">
-        <v>264300</v>
+        <v>372600</v>
       </c>
       <c r="F10" s="3">
+        <v>292100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>270900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>320400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>271200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K10" s="3">
         <v>269800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>334700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>299000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>211800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>145200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>306800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +876,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +910,23 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,37 +954,67 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="E14" s="3">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="F14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K14" s="3">
         <v>21400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>11200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -963,8 +1042,23 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,66 +1067,101 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>858700</v>
+        <v>865600</v>
       </c>
       <c r="E17" s="3">
-        <v>691900</v>
+        <v>924500</v>
       </c>
       <c r="F17" s="3">
+        <v>868700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>578700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>902100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>782100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>630200</v>
+      </c>
+      <c r="K17" s="3">
         <v>509600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>638800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>691100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>559400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>599200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>530200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>186000</v>
+        <v>472700</v>
       </c>
       <c r="E18" s="3">
-        <v>216500</v>
+        <v>260100</v>
       </c>
       <c r="F18" s="3">
+        <v>233600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>459900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>213700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>169400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K18" s="3">
         <v>443500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>312600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>172600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>154800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>115000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>281800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,153 +1173,233 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-84700</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>-22300</v>
+        <v>44600</v>
       </c>
       <c r="F20" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>126500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-138600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>-12900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>-59900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>-33900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>-70300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>233200</v>
+        <v>614500</v>
       </c>
       <c r="E21" s="3">
-        <v>315500</v>
+        <v>434500</v>
       </c>
       <c r="F21" s="3">
+        <v>339500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>721200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>299300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>212400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>287400</v>
+      </c>
+      <c r="K21" s="3">
         <v>457400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>414200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>228300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>235400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>206600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>424900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106000</v>
+        <v>116900</v>
       </c>
       <c r="E22" s="3">
-        <v>111100</v>
+        <v>118300</v>
       </c>
       <c r="F22" s="3">
+        <v>96500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>85100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K22" s="3">
         <v>98800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
         <v>121100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>115600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>124600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>115800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>238200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4700</v>
+        <v>358700</v>
       </c>
       <c r="E23" s="3">
-        <v>83000</v>
+        <v>186400</v>
       </c>
       <c r="F23" s="3">
+        <v>111600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>501300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>91400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K23" s="3">
         <v>206100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>178600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>-71100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>134100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K24" s="3">
         <v>51200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
         <v>38200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="3">
         <v>9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="O24" s="3">
         <v>-23100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1218,66 +1427,111 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4700</v>
+        <v>268200</v>
       </c>
       <c r="E26" s="3">
-        <v>61700</v>
+        <v>126300</v>
       </c>
       <c r="F26" s="3">
+        <v>92600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>367200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>67200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K26" s="3">
         <v>154900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>140500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="3">
         <v>-47900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
         <v>73400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5800</v>
+        <v>131000</v>
       </c>
       <c r="E27" s="3">
-        <v>27300</v>
+        <v>48700</v>
       </c>
       <c r="F27" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>183000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K27" s="3">
         <v>83700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>63600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="3">
         <v>14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1305,8 +1559,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,26 +1585,41 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-6100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="P29" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1363,8 +1647,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1392,66 +1691,111 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>84700</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>22300</v>
+        <v>-44600</v>
       </c>
       <c r="F32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>77200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K32" s="3">
         <v>138600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
         <v>12900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>59900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
         <v>33900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
         <v>70300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="P32" s="3">
         <v>-47000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5800</v>
+        <v>131000</v>
       </c>
       <c r="E33" s="3">
-        <v>27300</v>
+        <v>48700</v>
       </c>
       <c r="F33" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>183000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K33" s="3">
         <v>83700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>63600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="P33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1479,71 +1823,116 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5800</v>
+        <v>131000</v>
       </c>
       <c r="E35" s="3">
-        <v>27300</v>
+        <v>48700</v>
       </c>
       <c r="F35" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>183000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K35" s="3">
         <v>83700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>63600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="P35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,8 +1944,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1568,269 +1962,409 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30100</v>
+        <v>330000</v>
       </c>
       <c r="E41" s="3">
-        <v>67300</v>
+        <v>23900</v>
       </c>
       <c r="F41" s="3">
+        <v>152800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>22100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="3">
         <v>15200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
         <v>625500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>96400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1989600</v>
+        <v>1827600</v>
       </c>
       <c r="E42" s="3">
-        <v>2407200</v>
+        <v>1675700</v>
       </c>
       <c r="F42" s="3">
+        <v>1582600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1801200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1769400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1812200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2192600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2485600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="L42" s="3">
         <v>1997400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="M42" s="3">
         <v>1681200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="N42" s="3">
         <v>1288900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="O42" s="3">
         <v>1388300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="P42" s="3">
         <v>969600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>604900</v>
+        <v>747900</v>
       </c>
       <c r="E43" s="3">
-        <v>547500</v>
+        <v>759200</v>
       </c>
       <c r="F43" s="3">
+        <v>684400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>628900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>551300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>550900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>498600</v>
+      </c>
+      <c r="K43" s="3">
         <v>502800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="L43" s="3">
         <v>448000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="M43" s="3">
         <v>445100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="N43" s="3">
         <v>406000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="O43" s="3">
         <v>481300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="P43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>195300</v>
+        <v>188300</v>
       </c>
       <c r="E44" s="3">
-        <v>165500</v>
+        <v>188800</v>
       </c>
       <c r="F44" s="3">
+        <v>171800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>167300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>177900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K44" s="3">
         <v>170000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="L44" s="3">
         <v>157400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="M44" s="3">
         <v>148900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="N44" s="3">
         <v>153800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="O44" s="3">
         <v>161700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="P44" s="3">
         <v>171300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130400</v>
+        <v>137100</v>
       </c>
       <c r="E45" s="3">
-        <v>127300</v>
+        <v>143500</v>
       </c>
       <c r="F45" s="3">
+        <v>174900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>169500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>111500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>118800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>115900</v>
+      </c>
+      <c r="K45" s="3">
         <v>169600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>132700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
         <v>117700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>108400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
         <v>120500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="P45" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2950300</v>
+        <v>3231000</v>
       </c>
       <c r="E46" s="3">
-        <v>3314700</v>
+        <v>2791100</v>
       </c>
       <c r="F46" s="3">
+        <v>2766400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2792800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2634100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2687200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3019100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3341600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>2749600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>2408100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>2582600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>2248200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>2515800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2453700</v>
+        <v>2162100</v>
       </c>
       <c r="E47" s="3">
-        <v>2528500</v>
+        <v>2156400</v>
       </c>
       <c r="F47" s="3">
+        <v>2238400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2265400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2234900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2303000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2561300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="L47" s="3">
         <v>2622400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="M47" s="3">
         <v>2594200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="N47" s="3">
         <v>2606500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="O47" s="3">
         <v>2536400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="P47" s="3">
         <v>2421600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3098000</v>
+        <v>3834000</v>
       </c>
       <c r="E48" s="3">
-        <v>3040900</v>
+        <v>3158900</v>
       </c>
       <c r="F48" s="3">
+        <v>3208600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2899800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2877600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2821700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2769800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2994900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>2904800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>2852200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>2801400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>2750000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="3">
         <v>2653300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4339600</v>
+        <v>3941900</v>
       </c>
       <c r="E49" s="3">
-        <v>4340300</v>
+        <v>3947200</v>
       </c>
       <c r="F49" s="3">
+        <v>3955200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4014300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3946200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3952700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3953300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4351700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="L49" s="3">
         <v>4319600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="M49" s="3">
         <v>4338700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="N49" s="3">
         <v>4357600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="O49" s="3">
         <v>4386500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="P49" s="3">
         <v>4252100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1858,8 +2392,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,37 +2436,67 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1180300</v>
+        <v>1759200</v>
       </c>
       <c r="E52" s="3">
-        <v>1008600</v>
+        <v>1488700</v>
       </c>
       <c r="F52" s="3">
+        <v>1352600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1198300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1075100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>918600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1011400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="L52" s="3">
         <v>1090600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="M52" s="3">
         <v>1073600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="N52" s="3">
         <v>1009200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="O52" s="3">
         <v>1018300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="P52" s="3">
         <v>1163300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1945,37 +2524,67 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14021800</v>
+        <v>14928200</v>
       </c>
       <c r="E54" s="3">
-        <v>14232900</v>
+        <v>13542300</v>
       </c>
       <c r="F54" s="3">
+        <v>13521100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13161400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12829100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12771600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12963800</v>
+      </c>
+      <c r="K54" s="3">
         <v>14261000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>13687000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>13266800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>13357300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>12939500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>13006000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1987,8 +2596,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,182 +2614,277 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>649900</v>
+        <v>513200</v>
       </c>
       <c r="E57" s="3">
-        <v>604000</v>
+        <v>477800</v>
       </c>
       <c r="F57" s="3">
+        <v>463500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>449300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>635000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>592000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>550200</v>
+      </c>
+      <c r="K57" s="3">
         <v>624000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>561300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="M57" s="3">
         <v>514700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="N57" s="3">
         <v>494000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>521100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="3">
         <v>475000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>715000</v>
+        <v>919300</v>
       </c>
       <c r="E58" s="3">
-        <v>724100</v>
+        <v>745100</v>
       </c>
       <c r="F58" s="3">
+        <v>696700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>528800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>513300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>651300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>659500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1074800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="L58" s="3">
         <v>896400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
         <v>899500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="N58" s="3">
         <v>895400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="O58" s="3">
         <v>744600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="3">
         <v>743100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>502100</v>
+        <v>562900</v>
       </c>
       <c r="E59" s="3">
-        <v>508000</v>
+        <v>473100</v>
       </c>
       <c r="F59" s="3">
+        <v>437700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>479300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>495900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>457300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K59" s="3">
         <v>614300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>456500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="M59" s="3">
         <v>416700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="N59" s="3">
         <v>373800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
         <v>433900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1867000</v>
+        <v>1995400</v>
       </c>
       <c r="E60" s="3">
-        <v>1836100</v>
+        <v>1696100</v>
       </c>
       <c r="F60" s="3">
+        <v>1597900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1457400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1644100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1700500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1672400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2313100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="L60" s="3">
         <v>1914200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>1830900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
         <v>1763300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
         <v>1699600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>1673100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6283300</v>
+        <v>7431900</v>
       </c>
       <c r="E61" s="3">
-        <v>6238500</v>
+        <v>6403500</v>
       </c>
       <c r="F61" s="3">
+        <v>6527200</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5877500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5783700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5723100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5682200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5849800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="L61" s="3">
         <v>5961400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="M61" s="3">
         <v>5750200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="N61" s="3">
         <v>5823700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="O61" s="3">
         <v>5437600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="P61" s="3">
         <v>5171800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700000</v>
+        <v>1624400</v>
       </c>
       <c r="E62" s="3">
-        <v>1725900</v>
+        <v>1661600</v>
       </c>
       <c r="F62" s="3">
+        <v>1637700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1630300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1548900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1724400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="L62" s="3">
         <v>1669000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="M62" s="3">
         <v>1670700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="N62" s="3">
         <v>1731800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="O62" s="3">
         <v>1697800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="P62" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2203,8 +2912,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +2956,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2261,37 +3000,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12562600</v>
+        <v>13645700</v>
       </c>
       <c r="E66" s="3">
-        <v>12660200</v>
+        <v>12210300</v>
       </c>
       <c r="F66" s="3">
+        <v>12200500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>11616800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11498800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>11442500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>11531400</v>
+      </c>
+      <c r="K66" s="3">
         <v>12712800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>12023600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>11663100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>11750000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>11331300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>11457400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +3072,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2332,8 +3106,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2361,8 +3150,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2390,8 +3194,23 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2419,37 +3238,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>830000</v>
+        <v>1157800</v>
       </c>
       <c r="E72" s="3">
-        <v>842300</v>
+        <v>1023900</v>
       </c>
       <c r="F72" s="3">
+        <v>972400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>953700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>770700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>756000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>767200</v>
+      </c>
+      <c r="K72" s="3">
         <v>815800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>732100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>668500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>696600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>691200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>658600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2477,8 +3326,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2506,8 +3370,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2535,37 +3414,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1459200</v>
+        <v>1282400</v>
       </c>
       <c r="E76" s="3">
-        <v>1572700</v>
+        <v>1331900</v>
       </c>
       <c r="F76" s="3">
+        <v>1320600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1544600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1330300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1432400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1548200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>1663400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>1603700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>1607200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>1608100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>1548600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2593,71 +3502,116 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5800</v>
+        <v>131000</v>
       </c>
       <c r="E81" s="3">
-        <v>27300</v>
+        <v>48700</v>
       </c>
       <c r="F81" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>183000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K81" s="3">
         <v>83700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>63600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="P81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2669,37 +3623,57 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131900</v>
+        <v>138900</v>
       </c>
       <c r="E83" s="3">
-        <v>121300</v>
+        <v>129800</v>
       </c>
       <c r="F83" s="3">
+        <v>131400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>134900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>115800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>120200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K83" s="3">
         <v>152500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="L83" s="3">
         <v>114400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="M83" s="3">
         <v>115600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="N83" s="3">
         <v>114500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="O83" s="3">
         <v>123700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="P83" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2727,8 +3701,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2756,8 +3745,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2785,8 +3789,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2814,8 +3833,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2843,37 +3877,67 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>272700</v>
+        <v>510800</v>
       </c>
       <c r="E89" s="3">
-        <v>469300</v>
+        <v>337300</v>
       </c>
       <c r="F89" s="3">
+        <v>176200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>222900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>357100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>241100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>434700</v>
+      </c>
+      <c r="K89" s="3">
         <v>236800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="L89" s="3">
         <v>321400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="3">
         <v>241200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
         <v>248700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="O89" s="3">
         <v>161200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="P89" s="3">
         <v>342500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2885,37 +3949,57 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-184900</v>
+        <v>-143900</v>
       </c>
       <c r="E91" s="3">
-        <v>-151900</v>
+        <v>-145200</v>
       </c>
       <c r="F91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-168400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-194700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
         <v>-145500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="3">
         <v>-150800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="N91" s="3">
         <v>-139100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="O91" s="3">
         <v>-152400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="P91" s="3">
         <v>-271600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2943,8 +4027,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2972,37 +4071,67 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156700</v>
+        <v>-123100</v>
       </c>
       <c r="E94" s="3">
-        <v>37200</v>
+        <v>93900</v>
       </c>
       <c r="F94" s="3">
+        <v>227100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-220900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-557300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
         <v>184400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="3">
         <v>-504900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="N94" s="3">
         <v>-39300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="O94" s="3">
         <v>323200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="P94" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,37 +4143,57 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138800</v>
+        <v>-38400</v>
       </c>
       <c r="E96" s="3">
-        <v>-9700</v>
+        <v>-96300</v>
       </c>
       <c r="F96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-102600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="M96" s="3">
         <v>-134800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="N96" s="3">
         <v>-41400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="O96" s="3">
         <v>-121000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3072,8 +4221,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,8 +4265,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3130,91 +4309,151 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-698500</v>
+        <v>-135600</v>
       </c>
       <c r="E100" s="3">
-        <v>-119700</v>
+        <v>-343700</v>
       </c>
       <c r="F100" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-361700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-636200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-18400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
         <v>-26100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>-407500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>307000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>-142000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
         <v>-169200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62100</v>
+        <v>77200</v>
       </c>
       <c r="E101" s="3">
-        <v>10000</v>
+        <v>-7700</v>
       </c>
       <c r="F101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>56600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K101" s="3">
         <v>19400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-520300</v>
+        <v>329300</v>
       </c>
       <c r="E102" s="3">
-        <v>396700</v>
+        <v>79700</v>
       </c>
       <c r="F102" s="3">
+        <v>242800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-473900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>361400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-319600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="L102" s="3">
         <v>478100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
         <v>-668400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="N102" s="3">
         <v>524200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
         <v>344000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="P102" s="3">
         <v>152300</v>
       </c>
     </row>
